--- a/src/test/java/ru/fds/tavrzcms3/testdata/pledge_subject_tbo_update.xlsx
+++ b/src/test/java/ru/fds/tavrzcms3/testdata/pledge_subject_tbo_update.xlsx
@@ -718,7 +718,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
